--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3720558.064404756</v>
+        <v>3796087.73406956</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>152.327080365257</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>196.5726163292152</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.27559683049698</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>188.597035009685</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>186.5444490527319</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>160.4740936944298</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>205.1332020905458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>358.2858791258605</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>273.7294304927444</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2.906413479537344</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.02143253644959</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805198</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262922</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>101.1634376464982</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1144943768558</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>132.5202535129946</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>243.0099246309967</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2239,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>115.1182790519509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>23.39375411340972</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>248.9913969484768</v>
+        <v>44.76059872677006</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2770,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>38.12161383500744</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>161.4046520073175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.7059714321721</v>
+        <v>110.6143532572828</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634808</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206832</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417117</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896917</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385021</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784693</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986281</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>122.6519788371604</v>
+        <v>166.4935684633778</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836035</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583895</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985776</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>199.6206012858496</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002153</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532057</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U41" t="n">
         <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4.46707130753606</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3955,7 +3957,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>241.5059801783581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>93.70991968893334</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>1408.645612988121</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.514859931282</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>980.5523429908701</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>980.5523429908701</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>980.5523429908701</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>569.5664382012626</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.514859931282</v>
+        <v>1970.914677487029</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1482364572794</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1251.855211652197</v>
+        <v>1957.780595683987</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.855211652197</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.855211652197</v>
+        <v>2344.380435748109</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.5667372199621</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C10" t="n">
-        <v>540.5667372199621</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>540.5667372199621</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>540.5667372199621</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220518</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>725.1932130149828</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>725.1932130149828</v>
       </c>
       <c r="S10" t="n">
-        <v>540.5667372199621</v>
+        <v>725.1932130149828</v>
       </c>
       <c r="T10" t="n">
-        <v>540.5667372199621</v>
+        <v>725.1932130149828</v>
       </c>
       <c r="U10" t="n">
-        <v>540.5667372199621</v>
+        <v>725.1932130149828</v>
       </c>
       <c r="V10" t="n">
-        <v>540.5667372199621</v>
+        <v>470.508724809096</v>
       </c>
       <c r="W10" t="n">
-        <v>540.5667372199621</v>
+        <v>470.508724809096</v>
       </c>
       <c r="X10" t="n">
-        <v>540.5667372199621</v>
+        <v>470.508724809096</v>
       </c>
       <c r="Y10" t="n">
-        <v>540.5667372199621</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="11">
@@ -5027,49 +5029,49 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256433</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701558</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227044</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507005</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171038</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1396.730980005883</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1196.810969921435</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="V13" t="n">
-        <v>620.2426249169049</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="W13" t="n">
-        <v>414.0663679705859</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="X13" t="n">
-        <v>414.0663679705859</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.0663679705859</v>
+        <v>973.0255547109412</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5267,40 +5269,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,7 +5354,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5373,7 +5375,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1365.057428625585</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1141.27201341509</v>
       </c>
       <c r="U16" t="n">
-        <v>1271.749344574921</v>
+        <v>852.1433746286485</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1029.666285013068</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C19" t="n">
-        <v>860.7301020851612</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D19" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5706,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1029.666285013068</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1029.666285013068</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1029.666285013068</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>1029.666285013068</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.666285013068</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.3704617344999</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C22" t="n">
-        <v>920.3704617344999</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>770.2538223221642</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>622.3407287397711</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>475.4507812418607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1475.286215897893</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1186.157577111451</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>931.4730889055638</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344999</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X22" t="n">
-        <v>920.3704617344999</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y22" t="n">
-        <v>920.3704617344999</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.0663679705859</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.210845262961</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>823.7043836988429</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X25" t="n">
-        <v>595.7148328008255</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y25" t="n">
-        <v>595.7148328008255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030231</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9270610048577</v>
+        <v>192.33306393444</v>
       </c>
       <c r="C28" t="n">
-        <v>565.9270610048577</v>
+        <v>192.33306393444</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>192.33306393444</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>192.33306393444</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>192.33306393444</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>192.33306393444</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>747.5755258350974</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>747.5755258350974</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X28" t="n">
-        <v>747.5755258350974</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y28" t="n">
-        <v>747.5755258350974</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6467,46 +6469,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655742</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286137</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286137</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.8933943850835</v>
+        <v>488.658674475369</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805475</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.88834779521</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643327</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.63284889913</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207833</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014296</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
@@ -7020,22 +7022,22 @@
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>221.1079791745893</v>
+        <v>584.4452354807087</v>
       </c>
       <c r="C37" t="n">
-        <v>221.1079791745893</v>
+        <v>415.5090525528016</v>
       </c>
       <c r="D37" t="n">
-        <v>221.1079791745893</v>
+        <v>265.3924131404656</v>
       </c>
       <c r="E37" t="n">
-        <v>221.1079791745893</v>
+        <v>265.3924131404656</v>
       </c>
       <c r="F37" t="n">
-        <v>221.1079791745893</v>
+        <v>265.3924131404656</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471185</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765164</v>
       </c>
       <c r="V37" t="n">
-        <v>731.31772835508</v>
+        <v>786.0822064765164</v>
       </c>
       <c r="W37" t="n">
-        <v>441.9005583181194</v>
+        <v>786.0822064765164</v>
       </c>
       <c r="X37" t="n">
-        <v>441.9005583181194</v>
+        <v>786.0822064765164</v>
       </c>
       <c r="Y37" t="n">
-        <v>221.1079791745893</v>
+        <v>584.4452354807087</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471185</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598088</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011512</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952642</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7421,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,28 +7435,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>229.0333923118336</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>378.1030765138935</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>624.8682044203576</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003194</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.59991596447</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183167</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.1367719529251</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="C43" t="n">
-        <v>542.1367719529251</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>252.147293152278</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>101.7292847002213</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>542.1367719529251</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>542.1367719529251</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X43" t="n">
-        <v>542.1367719529251</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y43" t="n">
-        <v>542.1367719529251</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>488.2756279992592</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.048458376741</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2410.070939158951</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>253.7371603504758</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445224</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>87.16935584025333</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119814</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504537</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,25 +10670,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>116.908739053196</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>91.23759968302028</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>272.8719470256804</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>76.43196988338502</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>8.800914757294635</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>82.40850395973519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>65.40055647060865</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>43.22742776758065</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>51.37528941142664</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>198.1538069449795</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.53160138811418</v>
+        <v>241.7623996098209</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>54.74901561812349</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>214.0160294888205</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>27.94407814005706</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24889,7 +24891,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>64.3050033817197</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.126008749765191</v>
+        <v>69.21762692465451</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229315</v>
       </c>
       <c r="G37" t="n">
-        <v>43.84158962621721</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675364</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>109.964352403793</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>18.96405206624542</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633778</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>109.964352403793</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338813</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>105.9521741567359</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>10.63166314546993</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>192.8130786476577</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635145</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="O2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="F2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147619</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.40106601268053e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26441,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687062</v>
+        <v>22174.6075868705</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26503,13 +26505,13 @@
         <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001589</v>
+        <v>-78996.18794001621</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745284</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745282</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227778</v>
+        <v>84081.79050227864</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791738</v>
+        <v>609241.8269791739</v>
       </c>
       <c r="G6" t="n">
         <v>609241.8269791739</v>
       </c>
       <c r="H6" t="n">
+        <v>609241.8269791737</v>
+      </c>
+      <c r="I6" t="n">
+        <v>609241.8269791742</v>
+      </c>
+      <c r="J6" t="n">
+        <v>432818.6077865809</v>
+      </c>
+      <c r="K6" t="n">
         <v>609241.8269791738</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>609241.8269791738</v>
       </c>
-      <c r="J6" t="n">
-        <v>432818.6077865811</v>
-      </c>
-      <c r="K6" t="n">
-        <v>609241.8269791744</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>474440.8117453374</v>
+      </c>
+      <c r="N6" t="n">
         <v>609241.826979174</v>
       </c>
-      <c r="M6" t="n">
-        <v>474440.8117453367</v>
-      </c>
-      <c r="N6" t="n">
-        <v>609241.8269791742</v>
-      </c>
       <c r="O6" t="n">
-        <v>609241.8269791746</v>
+        <v>609241.8269791739</v>
       </c>
       <c r="P6" t="n">
-        <v>609241.8269791738</v>
+        <v>609241.8269791739</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26722,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540997</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.001332515850663e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370129</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990169</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27433,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>98.89708714303225</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.6653223268384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.83197231642228</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114808</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>194.1368066537956</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>227.239720968063</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>51.67144525558908</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>20.57645329849132</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.987012645147047</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>96.00167018572461</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>26.21633647537692</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>173.1241064135693</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28336,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="42">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443615</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961202</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041485</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304437</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565515</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927183</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540882</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946989</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647494</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446476</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104644</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354891</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354101</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.4953007812706</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358982</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724843</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813459</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855523</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458547</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710955</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361485</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.117506944168033</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081163</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990344</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298627</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822382</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263749</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.652223606563</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337665</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336899</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415077</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303327</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109069</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081115</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951468</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502046</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349796</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490657</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594832</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.424377050466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980126</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>536.1008625915837</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507396</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556546</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187468</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35741,10 +35743,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>336.4270607962777</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081092</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109105</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>450.1033124512089</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655653</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799283</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789723</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056034</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843356</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799283</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187456</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>133.147778637927</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>555.2356492667885</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>227.0074084713243</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3796087.73406956</v>
+        <v>3789070.71917785</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>135.6089145134688</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>152.327080365257</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>4.553842565068913</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>188.597035009685</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>163.9694038001639</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>160.4740936944298</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>358.2858791258605</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>75.01544504740529</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,22 +1299,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.906413479537344</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.950364805198</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>53.93028217673957</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.1634376464982</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>132.5202535129946</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.38162151975434</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>23.39375411340972</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>44.76059872677006</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16481274941263</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120378</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.6143532572828</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634808</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896917</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385021</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784693</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986281</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182126</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633778</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836035</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583895</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985776</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>199.6206012858496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002153</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985775</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.46707130753606</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>93.70991968893334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2312.077176120202</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1981.014288776631</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1628.245633506517</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1254.779875245437</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>864.6405432696254</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2531.523430614016</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748109</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487029</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487029</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.780595683987</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>554.6254674869419</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>547.6799667377385</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>129.7161586359254</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>129.7161586359254</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748109</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>2344.380435748109</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>725.1932130149828</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>725.1932130149828</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>725.1932130149828</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>725.1932130149828</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>725.1932130149828</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256433</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701558</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227044</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507005</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171038</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1396.730980005883</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1196.810969921435</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>973.0255547109412</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>973.0255547109412</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>973.0255547109412</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>973.0255547109412</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X13" t="n">
-        <v>973.0255547109412</v>
+        <v>670.514436100302</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.0255547109412</v>
+        <v>449.7218569567718</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.057428625585</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1141.27201341509</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>852.1433746286485</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>597.4588864227617</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>597.4588864227617</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>597.4588864227617</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,34 +5500,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,13 +5597,13 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>732.1698305154059</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
         <v>1843.901542059518</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1475.286215897893</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1186.157577111451</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>931.4730889055638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>642.0559188686032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>486.1849922839954</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6305,13 +6305,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
         <v>1198.760773441947</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192.33306393444</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>192.33306393444</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>192.33306393444</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324574</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X28" t="n">
-        <v>192.33306393444</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.33306393444</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,10 +6481,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6709,22 +6709,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U34" t="n">
-        <v>964.135741824786</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V34" t="n">
-        <v>709.4512536188992</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W34" t="n">
-        <v>709.4512536188992</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X34" t="n">
-        <v>709.4512536188992</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.88834779521</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643327</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.63284889913</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207833</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7052,7 +7052,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.4452354807087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>415.5090525528016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404656</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471185</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473453</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262958</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765164</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765164</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>786.0822064765164</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>786.0822064765164</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>584.4452354807087</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471185</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598088</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387593</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011512</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952642</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583034</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7393,49 +7393,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265285</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>420.3226148324574</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>420.3226148324574</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>420.3226148324574</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>420.3226148324574</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>420.3226148324574</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>252.147293152278</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>101.7292847002213</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324574</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324574</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.3226148324574</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,43 +7636,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>488.2756279992592</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>735.0407559057232</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7845,13 +7845,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>436.7412337363557</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050813</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>253.7371603504758</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445224</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504537</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10670,25 +10670,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>116.908739053196</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,13 +11147,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>272.8719470256804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>76.43196988338502</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>125.9016980051977</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.800914757294635</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>65.40055647060865</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>99.23385149845802</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>198.1538069449795</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>241.7623996098209</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>54.74901561812349</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>30.90698584635149</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>27.94407814005706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.21762692465451</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465694</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229315</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675364</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642722</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.964352403793</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890374</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.96405206624542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633778</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675363</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642722</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.964352403793</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338813</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>105.9521741567359</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>192.8130786476577</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666584.7624635147</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666584.7624635145</v>
+        <v>666584.7624635146</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.760514761</v>
       </c>
       <c r="H2" t="n">
         <v>723403.760514761</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147611</v>
@@ -26343,19 +26343,19 @@
         <v>723403.7605147611</v>
       </c>
       <c r="L2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="M2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="O2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768953</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.40106601268053e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26447,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="M4" t="n">
-        <v>22174.6075868705</v>
-      </c>
       <c r="N4" t="n">
-        <v>22174.60758687065</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26472,40 +26472,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001621</v>
+        <v>-78996.18794001589</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745284</v>
+        <v>510971.6912745285</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745282</v>
+        <v>510971.6912745285</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227864</v>
+        <v>83107.19924255639</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791739</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791739</v>
+        <v>608267.235719452</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.8269791737</v>
+        <v>608267.235719452</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.8269791742</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.6077865809</v>
+        <v>431844.0165268593</v>
       </c>
       <c r="K6" t="n">
-        <v>609241.8269791738</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="L6" t="n">
-        <v>609241.8269791738</v>
+        <v>608267.2357194525</v>
       </c>
       <c r="M6" t="n">
-        <v>474440.8117453374</v>
+        <v>473466.2204856154</v>
       </c>
       <c r="N6" t="n">
-        <v>609241.826979174</v>
+        <v>608267.2357194521</v>
       </c>
       <c r="O6" t="n">
-        <v>609241.8269791739</v>
+        <v>608267.2357194523</v>
       </c>
       <c r="P6" t="n">
-        <v>609241.8269791739</v>
+        <v>608267.2357194521</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26743,10 +26743,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.001332515850663e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370129</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>247.1249271500118</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>98.89708714303225</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114808</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>194.1368066537956</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>10.44630900880759</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>51.67144525558908</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6.987012645147047</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>76.91587119745596</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.21633647537692</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349796</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490657</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594832</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>536.1008625915837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507396</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187468</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35965,16 +35965,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109105</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>450.1033124512089</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655653</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799283</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789723</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056034</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799283</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187456</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>555.2356492667885</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>227.0074084713243</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3789070.71917785</v>
+        <v>3794009.982026882</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.6089145134688</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>135.6089145134688</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>4.553842565068913</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>163.9694038001639</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>169.3819108275729</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>85.13711862193084</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>75.01544504740529</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.46389722690827</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014439</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.93028217673957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>13.20582228581725</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>32.89657674137995</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.8435192151917</v>
+        <v>203.8435192151922</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139886</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>190.6405752120378</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>217.2025490997209</v>
       </c>
     </row>
     <row r="32">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.7395205132413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1426.498002692507</v>
       </c>
       <c r="Y2" t="n">
-        <v>1173.337372245452</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4509,25 +4509,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>723.5291432316174</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>509.2407200497801</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>281.9325327183818</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2531.523430614016</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2312.888763586079</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.888763586079</v>
+        <v>2076.215407615178</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.825876242509</v>
+        <v>1745.152520271607</v>
       </c>
       <c r="W5" t="n">
-        <v>1629.057220972395</v>
+        <v>1392.383865001493</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.591462711315</v>
+        <v>1018.918106740413</v>
       </c>
       <c r="Y5" t="n">
-        <v>865.4521307355029</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4704,25 +4704,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.4137200851862</v>
+        <v>923.1150787952333</v>
       </c>
       <c r="C8" t="n">
-        <v>940.4137200851862</v>
+        <v>923.1150787952333</v>
       </c>
       <c r="D8" t="n">
-        <v>940.4137200851862</v>
+        <v>564.8493801884829</v>
       </c>
       <c r="E8" t="n">
-        <v>554.6254674869419</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F8" t="n">
-        <v>547.6799667377385</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>129.7161586359254</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>129.7161586359254</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.15289212512</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.013560149308</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4941,28 +4941,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5032,16 +5032,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5050,10 +5050,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701565</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389738</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.2468244550147</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687014</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>755.1831334811269</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983193</v>
+        <v>755.1831334811269</v>
       </c>
       <c r="X13" t="n">
-        <v>670.514436100302</v>
+        <v>741.8439190510085</v>
       </c>
       <c r="Y13" t="n">
-        <v>449.7218569567718</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1465.68740516257</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1265.767395078122</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1041.981979867628</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>752.8533410811858</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X16" t="n">
-        <v>303.1196361220957</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,22 +5527,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570736</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W19" t="n">
-        <v>531.109187020113</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X19" t="n">
-        <v>303.1196361220957</v>
+        <v>303.1196361220962</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256434</v>
@@ -6074,13 +6074,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,13 +6171,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011506</v>
@@ -6189,10 +6189,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1306.350032969985</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.221394183544</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>762.5369059776569</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406963</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
     </row>
     <row r="32">
@@ -6679,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6709,22 +6709,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1151.239967633105</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>862.1113288466635</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>607.4268406407766</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,10 +6925,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6949,25 +6949,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7125,19 +7125,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,22 +7162,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,34 +7192,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7496,16 +7496,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504716</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544521</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.9016980051977</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>212.5038331032199</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>77.06777566241283</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.74113413690304</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.74113413690304</v>
+        <v>14.74113413690262</v>
       </c>
     </row>
     <row r="20">
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>30.90698584635149</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>1.382104252373921</v>
       </c>
     </row>
     <row r="32">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>75.26883114644322</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>82.39383318338568</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.8451328388535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="L2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.760514761</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26438,7 +26438,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26447,19 +26447,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001589</v>
+        <v>-78996.18794001613</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745283</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.6912745285</v>
+        <v>510971.6912745286</v>
       </c>
       <c r="E6" t="n">
-        <v>83107.19924255639</v>
+        <v>83984.33137630524</v>
       </c>
       <c r="F6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532023</v>
       </c>
       <c r="G6" t="n">
-        <v>608267.235719452</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="H6" t="n">
-        <v>608267.235719452</v>
+        <v>609144.3678532022</v>
       </c>
       <c r="I6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.3678532023</v>
       </c>
       <c r="J6" t="n">
-        <v>431844.0165268593</v>
+        <v>432721.1486606086</v>
       </c>
       <c r="K6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="L6" t="n">
-        <v>608267.2357194525</v>
+        <v>609144.3678532016</v>
       </c>
       <c r="M6" t="n">
-        <v>473466.2204856154</v>
+        <v>474343.3526193646</v>
       </c>
       <c r="N6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="O6" t="n">
-        <v>608267.2357194523</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="P6" t="n">
-        <v>608267.2357194521</v>
+        <v>609144.3678532018</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541009</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247.1249271500118</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>234.1221861650003</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>142.1113494150889</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>171.2340993700032</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>10.44630900880759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>81.84225668071636</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>296.793251450331</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>76.91587119745596</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>120.50172456543</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.647069592719</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.452637254089</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946996</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127069</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215735</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622985</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724849</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813465</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855529</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458552</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710958</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361495</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298633</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065634</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336903</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.39802836989225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081123</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951476</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109127</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.9101789549068</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005181</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504666</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980132</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411085</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819966</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507427</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655656</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187485</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315246</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
